--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>Il27ra</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.63043832991382</v>
+        <v>0.1351216666666667</v>
       </c>
       <c r="H2">
-        <v>7.63043832991382</v>
+        <v>0.405365</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.35485180658012</v>
+        <v>1.423311333333333</v>
       </c>
       <c r="N2">
-        <v>1.35485180658012</v>
+        <v>4.269934</v>
       </c>
       <c r="O2">
-        <v>0.537567635003429</v>
+        <v>0.505384319942809</v>
       </c>
       <c r="P2">
-        <v>0.537567635003429</v>
+        <v>0.505384319942809</v>
       </c>
       <c r="Q2">
-        <v>10.33811315628193</v>
+        <v>0.1923201995455556</v>
       </c>
       <c r="R2">
-        <v>10.33811315628193</v>
+        <v>1.73088179591</v>
       </c>
       <c r="S2">
-        <v>0.537567635003429</v>
+        <v>0.007920612240911154</v>
       </c>
       <c r="T2">
-        <v>0.537567635003429</v>
+        <v>0.007920612240911154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -593,49 +596,421 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.63043832991382</v>
+        <v>0.1351216666666667</v>
       </c>
       <c r="H3">
-        <v>7.63043832991382</v>
+        <v>0.405365</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01567245347423418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.16548557677347</v>
+        <v>1.169098333333333</v>
       </c>
       <c r="N3">
-        <v>1.16548557677347</v>
+        <v>3.507295</v>
       </c>
       <c r="O3">
-        <v>0.4624323649965709</v>
+        <v>0.4151192731348574</v>
       </c>
       <c r="P3">
-        <v>0.4624323649965709</v>
+        <v>0.4151192731348574</v>
       </c>
       <c r="Q3">
-        <v>8.893165817974001</v>
+        <v>0.1579705152972222</v>
       </c>
       <c r="R3">
-        <v>8.893165817974001</v>
+        <v>1.421734637675</v>
       </c>
       <c r="S3">
-        <v>0.4624323649965709</v>
+        <v>0.006505937494463964</v>
       </c>
       <c r="T3">
-        <v>0.4624323649965709</v>
+        <v>0.006505937494463964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1351216666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.405365</v>
+      </c>
+      <c r="I4">
+        <v>0.01567245347423418</v>
+      </c>
+      <c r="J4">
+        <v>0.01567245347423418</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.192572</v>
+      </c>
+      <c r="N4">
+        <v>0.577716</v>
+      </c>
+      <c r="O4">
+        <v>0.06837778002659521</v>
+      </c>
+      <c r="P4">
+        <v>0.06837778002659523</v>
+      </c>
+      <c r="Q4">
+        <v>0.02602064959333333</v>
+      </c>
+      <c r="R4">
+        <v>0.23418584634</v>
+      </c>
+      <c r="S4">
+        <v>0.001071647576138233</v>
+      </c>
+      <c r="T4">
+        <v>0.001071647576138233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1351216666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.405365</v>
+      </c>
+      <c r="I5">
+        <v>0.01567245347423418</v>
+      </c>
+      <c r="J5">
+        <v>0.01567245347423418</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.03131333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.09394</v>
+      </c>
+      <c r="O5">
+        <v>0.01111862689573831</v>
+      </c>
+      <c r="P5">
+        <v>0.01111862689573831</v>
+      </c>
+      <c r="Q5">
+        <v>0.004231109788888889</v>
+      </c>
+      <c r="R5">
+        <v>0.0380799881</v>
+      </c>
+      <c r="S5">
+        <v>0.0001742561627208275</v>
+      </c>
+      <c r="T5">
+        <v>0.0001742561627208275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.486480999999999</v>
+      </c>
+      <c r="H6">
+        <v>25.459443</v>
+      </c>
+      <c r="I6">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="J6">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.423311333333333</v>
+      </c>
+      <c r="N6">
+        <v>4.269934</v>
+      </c>
+      <c r="O6">
+        <v>0.505384319942809</v>
+      </c>
+      <c r="P6">
+        <v>0.505384319942809</v>
+      </c>
+      <c r="Q6">
+        <v>12.078904587418</v>
+      </c>
+      <c r="R6">
+        <v>108.710141286762</v>
+      </c>
+      <c r="S6">
+        <v>0.4974637077018978</v>
+      </c>
+      <c r="T6">
+        <v>0.4974637077018978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.486480999999999</v>
+      </c>
+      <c r="H7">
+        <v>25.459443</v>
+      </c>
+      <c r="I7">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="J7">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.169098333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.507295</v>
+      </c>
+      <c r="O7">
+        <v>0.4151192731348574</v>
+      </c>
+      <c r="P7">
+        <v>0.4151192731348574</v>
+      </c>
+      <c r="Q7">
+        <v>9.921530792964999</v>
+      </c>
+      <c r="R7">
+        <v>89.29377713668501</v>
+      </c>
+      <c r="S7">
+        <v>0.4086133356403934</v>
+      </c>
+      <c r="T7">
+        <v>0.4086133356403934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.486480999999999</v>
+      </c>
+      <c r="H8">
+        <v>25.459443</v>
+      </c>
+      <c r="I8">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="J8">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.192572</v>
+      </c>
+      <c r="N8">
+        <v>0.577716</v>
+      </c>
+      <c r="O8">
+        <v>0.06837778002659521</v>
+      </c>
+      <c r="P8">
+        <v>0.06837778002659523</v>
+      </c>
+      <c r="Q8">
+        <v>1.634258619132</v>
+      </c>
+      <c r="R8">
+        <v>14.708327572188</v>
+      </c>
+      <c r="S8">
+        <v>0.06730613245045698</v>
+      </c>
+      <c r="T8">
+        <v>0.067306132450457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.486480999999999</v>
+      </c>
+      <c r="H9">
+        <v>25.459443</v>
+      </c>
+      <c r="I9">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="J9">
+        <v>0.9843275465257658</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03131333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.09394</v>
+      </c>
+      <c r="O9">
+        <v>0.01111862689573831</v>
+      </c>
+      <c r="P9">
+        <v>0.01111862689573831</v>
+      </c>
+      <c r="Q9">
+        <v>0.2657400083799999</v>
+      </c>
+      <c r="R9">
+        <v>2.39166007542</v>
+      </c>
+      <c r="S9">
+        <v>0.01094437073301749</v>
+      </c>
+      <c r="T9">
+        <v>0.01094437073301749</v>
       </c>
     </row>
   </sheetData>
